--- a/розрахунки.xlsx
+++ b/розрахунки.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>pe</t>
   </si>
@@ -113,12 +113,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF028ECC"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -126,45 +126,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -445,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,102 +431,83 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>(170*8314*(1-0.001^(1/G2))*(2*G2)/44)</f>
-        <v>206464.7933076421</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>1.35</v>
-      </c>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="O1">
-        <f>10*8.3*300/0.1/0.044</f>
-        <v>5659090.9090909092</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>SQRT(A1)</f>
-        <v>454.38397122658506</v>
-      </c>
-      <c r="G2">
-        <f>G1/(G1-1)</f>
-        <v>3.8571428571428563</v>
-      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="J2">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>333</v>
+        <v>1060</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G7">
         <v>8314</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G9">
@@ -565,184 +521,170 @@
         <v>3.8571428571428563</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+        <f>I2/J2</f>
+        <v>1.25E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+        <f>D17*D9/G13</f>
+        <v>14.331760252497736</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G12">
         <f>G6*G7/G8*2*I9*(1-G10^(1/I9))</f>
-        <v>206464.79330764213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+        <v>486856.45333296695</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G13">
         <f>SQRT(G12)</f>
-        <v>454.38397122658512</v>
+        <v>697.75099665494349</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D16">
         <f>D12*G13</f>
-        <v>454.38397122658512</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <f>D16/D9</f>
-        <v>4.5438397122658509</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>-217.15</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.047E-5</v>
-      </c>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>-267.14999999999998</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>-261.14999999999998</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>-253.15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>-173.15</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>-163.15</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>-153.15</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>-143.15</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="C29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>-133.16999999999999</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>-123.17</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>-113.1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>-103.15</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>-93.15</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>-83.15</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1.244</v>
-      </c>
-      <c r="C35" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
